--- a/public/files/d2013.xlsx
+++ b/public/files/d2013.xlsx
@@ -63,49 +63,18 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -141,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -150,6 +119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,40 +127,8 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,9 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -549,1375 +485,1375 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="6">
         <v>11010100</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="7">
         <v>1214282100</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="7">
         <v>1091794894.6600001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="6">
         <v>11010200</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="7">
         <v>66483100</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="7">
         <v>63220219.079999998</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="6">
         <v>11010300</v>
       </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>1685.62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="6">
         <v>11010400</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="7">
         <v>14924800</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="7">
         <v>17660490.449999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="6">
         <v>11010500</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="7">
         <v>61055900</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="7">
         <v>40471376.780000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="6">
         <v>11010600</v>
       </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>1410.73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="6">
         <v>11010700</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="6">
         <v>11020200</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="7">
         <v>3100000</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="7">
         <v>22938550.190000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="6">
         <v>11023200</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
         <v>15402039.359999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="6">
         <v>12020100</v>
       </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <v>-123832.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="A12" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="6">
         <v>12020200</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
         <v>636678.40000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="A13" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="6">
         <v>12030100</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="7">
         <v>2768500</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="7">
         <v>1493186.26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="17">
+      <c r="A14" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="6">
         <v>12030200</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="7">
         <v>8531500</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="7">
         <v>7307297.6600000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A15" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="6">
         <v>12030500</v>
       </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <v>2622.55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="A16" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="6">
         <v>13010200</v>
       </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
         <v>1425.78</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="A17" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="6">
         <v>13050100</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="7">
         <v>68637600</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="7">
         <v>49530323.990000002</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="A18" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="6">
         <v>13050200</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="7">
         <v>105000000</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="7">
         <v>98901294.430000007</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="6">
         <v>13050300</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="7">
         <v>1474400</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="7">
         <v>1160135.1399999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="A20" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B20" s="6">
         <v>13050500</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="7">
         <v>15000000</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="7">
         <v>13219436.949999999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B21" s="17">
+      <c r="A21" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B21" s="6">
         <v>16010100</v>
       </c>
-      <c r="C21" s="18">
-        <v>0</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
         <v>-10730.46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="6">
         <v>16010200</v>
       </c>
-      <c r="C22" s="18">
-        <v>0</v>
-      </c>
-      <c r="D22" s="18">
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
         <v>-2168.4299999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="A23" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="6">
         <v>16010400</v>
       </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
-      <c r="D23" s="18">
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
         <v>4928.92</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B24" s="17">
+      <c r="A24" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B24" s="6">
         <v>16011100</v>
       </c>
-      <c r="C24" s="18">
-        <v>0</v>
-      </c>
-      <c r="D24" s="18">
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
         <v>-38.11</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B25" s="17">
+      <c r="A25" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="6">
         <v>16011300</v>
       </c>
-      <c r="C25" s="18">
-        <v>0</v>
-      </c>
-      <c r="D25" s="18">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
         <v>586.22</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="A26" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="6">
         <v>16011600</v>
       </c>
-      <c r="C26" s="18">
-        <v>0</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
         <v>-3.24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B27" s="6">
         <v>18010100</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="7">
         <v>500000</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="7">
         <v>289063.53999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B28" s="17">
+      <c r="A28" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B28" s="6">
         <v>18010200</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="7">
         <v>500000</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="7">
         <v>15314.84</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B29" s="17">
+      <c r="A29" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B29" s="6">
         <v>18020100</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="7">
         <v>2174700</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="7">
         <v>2030433.97</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B30" s="17">
+      <c r="A30" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B30" s="6">
         <v>18020200</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="7">
         <v>1125300</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="7">
         <v>1012765.74</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B31" s="17">
+      <c r="A31" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B31" s="6">
         <v>18030100</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="7">
         <v>1159500</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="7">
         <v>998989.97</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B32" s="17">
+      <c r="A32" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B32" s="6">
         <v>18030200</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="7">
         <v>340500</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="7">
         <v>365526.59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B33" s="17">
+      <c r="A33" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B33" s="6">
         <v>18040100</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="7">
         <v>2726700</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="7">
         <v>2845689.45</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B34" s="17">
+      <c r="A34" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B34" s="6">
         <v>18040200</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="7">
         <v>8892600</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="7">
         <v>8849508.9499999993</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B35" s="17">
+      <c r="A35" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B35" s="6">
         <v>18040300</v>
       </c>
-      <c r="C35" s="18">
-        <v>0</v>
-      </c>
-      <c r="D35" s="18">
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
         <v>-4746</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B36" s="17">
+      <c r="A36" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B36" s="6">
         <v>18040500</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="7">
         <v>54900</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="7">
         <v>55824.23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B37" s="17">
+      <c r="A37" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B37" s="6">
         <v>18040600</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="7">
         <v>1866600</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="7">
         <v>1996923.72</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B38" s="17">
+      <c r="A38" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="6">
         <v>18040700</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="7">
         <v>1244400</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="7">
         <v>1148485.1000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B39" s="17">
+      <c r="A39" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="6">
         <v>18040800</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="7">
         <v>2946300</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="7">
         <v>2782657.31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B40" s="17">
+      <c r="A40" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B40" s="6">
         <v>18040900</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="7">
         <v>3000</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="7">
         <v>3720.97</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B41" s="17">
+      <c r="A41" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B41" s="6">
         <v>18041000</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="7">
         <v>11000</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="7">
         <v>7427.8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B42" s="17">
+      <c r="A42" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B42" s="6">
         <v>18041300</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="7">
         <v>12800</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="7">
         <v>5580</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B43" s="17">
+      <c r="A43" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B43" s="6">
         <v>18041400</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="7">
         <v>475800</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="7">
         <v>454108.48</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B44" s="17">
+      <c r="A44" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="6">
         <v>18041500</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="7">
         <v>400000</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="7">
         <v>465556.25</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B45" s="17">
+      <c r="A45" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B45" s="6">
         <v>18041700</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="7">
         <v>11000</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="7">
         <v>12913.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B46" s="17">
+      <c r="A46" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B46" s="6">
         <v>18041800</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="7">
         <v>54900</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B47" s="17">
+      <c r="A47" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B47" s="6">
         <v>18050100</v>
       </c>
-      <c r="C47" s="18">
-        <v>0</v>
-      </c>
-      <c r="D47" s="18">
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
         <v>-1380.21</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B48" s="17">
+      <c r="A48" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B48" s="6">
         <v>18050200</v>
       </c>
-      <c r="C48" s="18">
-        <v>0</v>
-      </c>
-      <c r="D48" s="18">
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
         <v>17671.95</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B49" s="17">
+      <c r="A49" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B49" s="6">
         <v>18050300</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="7">
         <v>69120000</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="7">
         <v>52234428.880000003</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B50" s="17">
+      <c r="A50" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B50" s="6">
         <v>18050400</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="7">
         <v>157414000</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="7">
         <v>132805334.44</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B51" s="17">
+      <c r="A51" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B51" s="6">
         <v>19010100</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="7">
         <v>615000</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="7">
         <v>408432.91</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B52" s="17">
+      <c r="A52" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B52" s="6">
         <v>19010200</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="7">
         <v>2279600</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="7">
         <v>1196513.6399999999</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B53" s="17">
+      <c r="A53" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B53" s="6">
         <v>19010300</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="7">
         <v>516600</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="7">
         <v>399945.45</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B54" s="17">
+      <c r="A54" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B54" s="6">
         <v>19010500</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="7">
         <v>8200</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="7">
         <v>585.54</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B55" s="17">
+      <c r="A55" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B55" s="6">
         <v>19010600</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="7">
         <v>4780600</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="7">
         <v>7018906.8600000003</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B56" s="17">
+      <c r="A56" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B56" s="6">
         <v>19040100</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="7">
         <v>300</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="7">
         <v>1109.3900000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B57" s="17">
+      <c r="A57" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B57" s="6">
         <v>19050200</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="7">
         <v>98400</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="7">
         <v>5959.65</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B58" s="17">
+      <c r="A58" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B58" s="6">
         <v>19050300</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="7">
         <v>1600</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="7">
         <v>-370.51</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B59" s="14">
+      <c r="A59" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B59" s="6">
         <v>21010300</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="7">
         <v>2850000</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="7">
         <v>550773.91</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B60" s="14">
+      <c r="A60" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B60" s="6">
         <v>21050000</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="7">
         <v>250000</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="7">
         <v>211242.33</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B61" s="14">
+      <c r="A61" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B61" s="6">
         <v>21080500</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="7">
         <v>830000</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="7">
         <v>632362.86</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B62" s="14">
+      <c r="A62" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B62" s="6">
         <v>21080900</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="7">
         <v>125000</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="7">
         <v>13637.64</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B63" s="14">
+      <c r="A63" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B63" s="6">
         <v>21081100</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="7">
         <v>2600000</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="7">
         <v>882312.68</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B64" s="14">
+      <c r="A64" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B64" s="6">
         <v>21110000</v>
       </c>
-      <c r="C64" s="15">
-        <v>0</v>
-      </c>
-      <c r="D64" s="15">
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7">
         <v>4009.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B65" s="14">
+      <c r="A65" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B65" s="6">
         <v>22010300</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="7">
         <v>430000</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="7">
         <v>193516.46</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B66" s="14">
+      <c r="A66" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B66" s="6">
         <v>22080400</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="7">
         <v>22920000</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="7">
         <v>22596133.98</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B67" s="14">
+      <c r="A67" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B67" s="6">
         <v>22090100</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="7">
         <v>1815700</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="7">
         <v>1590275.03</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B68" s="14">
+      <c r="A68" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B68" s="6">
         <v>22090400</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="7">
         <v>164300</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="7">
         <v>179571.48</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B69" s="14">
+      <c r="A69" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B69" s="6">
         <v>24030000</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="7">
         <v>350000</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="7">
         <v>151857.54999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B70" s="14">
+      <c r="A70" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="6">
         <v>24060300</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="7">
         <v>16299700</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="7">
         <v>17399590.739999998</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B71" s="14">
+      <c r="A71" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B71" s="6">
         <v>24062100</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="7">
         <v>200000</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="7">
         <v>214254.35</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B72" s="14">
+      <c r="A72" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B72" s="6">
         <v>24110700</v>
       </c>
-      <c r="C72" s="15">
-        <v>0</v>
-      </c>
-      <c r="D72" s="15">
+      <c r="C72" s="7">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B73" s="14">
+      <c r="A73" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B73" s="6">
         <v>24110900</v>
       </c>
-      <c r="C73" s="15">
-        <v>0</v>
-      </c>
-      <c r="D73" s="15">
+      <c r="C73" s="7">
+        <v>0</v>
+      </c>
+      <c r="D73" s="7">
         <v>11077.82</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B74" s="14">
+      <c r="A74" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B74" s="6">
         <v>24170000</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="7">
         <v>10600000</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="7">
         <v>11123357.720000001</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B75" s="14">
+      <c r="A75" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B75" s="6">
         <v>25010000</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="7">
         <v>57073150</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="7">
         <v>43802987.390000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B76" s="14">
+      <c r="A76" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B76" s="6">
         <v>25020000</v>
       </c>
-      <c r="C76" s="15">
-        <v>0</v>
-      </c>
-      <c r="D76" s="15">
+      <c r="C76" s="7">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
         <v>27846336.469999999</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B77" s="11">
+      <c r="A77" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B77" s="6">
         <v>31010200</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="7">
         <v>25000</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="7">
         <v>58075.85</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B78" s="11">
+      <c r="A78" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B78" s="6">
         <v>31020000</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="7">
         <v>5000</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="7">
         <v>5350.69</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B79" s="11">
+      <c r="A79" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B79" s="6">
         <v>31030000</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="7">
         <v>49100849</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="7">
         <v>33544355</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B80" s="11">
+      <c r="A80" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B80" s="6">
         <v>33010100</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="7">
         <v>77100000</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="7">
         <v>5974090.6399999997</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B81" s="11">
+      <c r="A81" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B81" s="6">
         <v>33010200</v>
       </c>
-      <c r="C81" s="12">
-        <v>0</v>
-      </c>
-      <c r="D81" s="12">
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7">
         <v>119759.47</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B82" s="11">
+      <c r="A82" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B82" s="6">
         <v>33010400</v>
       </c>
-      <c r="C82" s="12">
-        <v>0</v>
-      </c>
-      <c r="D82" s="12">
+      <c r="C82" s="7">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7">
         <v>3297216.59</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B83" s="8">
+      <c r="A83" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B83" s="6">
         <v>50110000</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="7">
         <v>100000</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="7">
         <v>152178.23999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B84" s="5">
+      <c r="A84" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B84" s="6">
         <v>41020600</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="7">
         <v>5310500</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="7">
         <v>5310500</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B85" s="5">
+      <c r="A85" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B85" s="6">
         <v>41021000</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="7">
         <v>98000</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="7">
         <v>98000</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B86" s="21">
-        <v>41018200</v>
-      </c>
-      <c r="C86" s="6">
+      <c r="A86" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B86" s="6">
+        <v>41030600</v>
+      </c>
+      <c r="C86" s="7">
         <v>529158900</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="7">
         <v>528383663.33999997</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B87" s="21">
-        <v>41028300</v>
-      </c>
-      <c r="C87" s="6">
+      <c r="A87" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B87" s="6">
+        <v>41030800</v>
+      </c>
+      <c r="C87" s="7">
         <v>107440500</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="7">
         <v>104373784.87</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B88" s="21">
-        <v>41038400</v>
-      </c>
-      <c r="C88" s="6">
+      <c r="A88" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B88" s="6">
+        <v>41030900</v>
+      </c>
+      <c r="C88" s="7">
         <v>48855100</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="7">
         <v>44512202.82</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B89" s="21">
-        <v>41048500</v>
-      </c>
-      <c r="C89" s="6">
+      <c r="A89" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B89" s="6">
+        <v>41031000</v>
+      </c>
+      <c r="C89" s="7">
         <v>22700</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="7">
         <v>19088.509999999998</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B90" s="5">
+      <c r="A90" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B90" s="6">
         <v>41031400</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="7">
         <v>1445000</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B91" s="5">
+      <c r="A91" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B91" s="6">
         <v>41032100</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="7">
         <v>1000000</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="7">
         <v>834585.36</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B92" s="5">
+      <c r="A92" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B92" s="6">
         <v>41034400</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="7">
         <v>41906100</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="7">
         <v>30857988.199999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B93" s="21">
-        <v>41078600</v>
-      </c>
-      <c r="C93" s="6">
+      <c r="A93" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B93" s="6">
+        <v>41035800</v>
+      </c>
+      <c r="C93" s="7">
         <v>957200</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="7">
         <v>798225.84</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B94" s="5">
+      <c r="A94" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B94" s="6">
         <v>41036300</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="7">
         <v>1000000</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B95" s="21">
-        <v>41037600</v>
-      </c>
-      <c r="C95" s="6">
+      <c r="A95" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B95" s="6">
+        <v>41036600</v>
+      </c>
+      <c r="C95" s="7">
         <v>19445380.949999999</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="7">
         <v>19445380.949999999</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B96" s="21">
-        <v>41022900</v>
-      </c>
-      <c r="C96" s="6">
+      <c r="A96" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B96" s="6">
+        <v>41020900</v>
+      </c>
+      <c r="C96" s="7">
         <v>2657217</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="7">
         <v>2653297</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B97" s="21">
-        <v>41088700</v>
-      </c>
-      <c r="C97" s="6">
+      <c r="A97" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B97" s="6">
+        <v>41030400</v>
+      </c>
+      <c r="C97" s="7">
         <v>450000</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="7">
         <v>400000</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B98" s="21">
-        <v>41098800</v>
-      </c>
-      <c r="C98" s="6">
+      <c r="A98" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B98" s="6">
+        <v>41035000</v>
+      </c>
+      <c r="C98" s="7">
         <v>13236219</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="7">
         <v>13108885.84</v>
       </c>
     </row>
@@ -1928,8 +1864,8 @@
     </row>
     <row r="100" spans="1:4">
       <c r="B100" s="1"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4">
       <c r="B101" s="1"/>
